--- a/extracted_excel/Busia_gendered_enterprise.xlsx
+++ b/extracted_excel/Busia_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Busia</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,7 +136,7 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
+    <t>Criteria: Climatic conditions (e.g. fish close to the lake, aquaparks, fish cages), environmental stability of the area Cultural and religious beliefs/ backgrounds Public participation (CDP, farmers asked questions, ) Market survey (guiding questions, consumption, ) Supply and market demand Resource availability (land etc) Knowledge and skills related to setting up a particular enterprise Enterprise feasibility How: Community participation (barazas, questions, ranking of the enterprises) Political influence (e.g. introduction of dairy cattle which end up failing due to lack of resources to sustain ), National government/regional strategies (BETA) Historical information Stakeholder Imposed value chains (women select the ones they can sustainably manage, sell/ consume)</t>
   </si>
   <si>
     <t>Youths go for short period maturity enterprises, friendly enterprises, e.g. they may go for value addition, transport, marketing (social media, IT) Formation of common interest groups (CIGs), producer groups, marketing groups, processors, supplier groups, (PRA) Participatory Rural Appraisal</t>
@@ -151,48 +145,18 @@
     <t>Youths go for short period maturity enterprises, friendly enterprises, e.g. they may go for value addition, transport, marketing (social media, IT) Men go for high value capital intensive value chains like dairy/sugarcane/coffee/cotton productions Women do short-term crops/subsistence crops like ground nuts, vegetables, african leafy vegetables, finger millet, orphaned crops (cow peas, green grams, sorghum, sweet potatoes, cassava) people tend to shy away from capital intensive enterprises Geography-lakeside dwellers fish, Traditional value chains are preferred to the conventional ones</t>
   </si>
   <si>
-    <t>Women-poultry, ALVs, sweet potatoes, finger millet, cow peas, green grams, sorghum, sweet potatoes, cassava, ground nuts, pigs Men- dairy/sugarcane/coffee/cotton Tomatoes, Fish farming, Youth- Kales, tomatoes, poultry, rabbits, regenerative feeds like black soldier flies, azola, pigs Elderly- Millet, Cotton, Coffee, vegetables, PWD- enterprises for youth and women as above</t>
-  </si>
-  <si>
-    <t>Traditional - g.nuts, cassava, local/indigenous poultry, ALVs, Non-traditional- soya, kales, exotic poultry breeds, exotic pig breeds, g.nuts (improved varieties)</t>
-  </si>
-  <si>
-    <t>Low capital required/ease of entry</t>
-  </si>
-  <si>
-    <t>cultural norms/barriers women leadership unrecognized by some institutions e.g. religious institutions, education/level of education/ ignorance/ Men chauvinism/ Leadership skewed towards men Poverty women empowerment</t>
-  </si>
-  <si>
-    <t>Crop Production (Percentages) Predominantly done by… Activity Men Women Youth PWD Elderly Remarks Land preparation 70 10 10 5 5 Labour and capital intensive Planting 20 50 20 10 Cultural norms Weeding 30 40 20 5 5 Perceived as less labour intensive Fertilizer Application 10 30 50 5 5 Perceived as less labour intensive Pest control 60 5 25 5 5 Risk is high and labour intensive Harvesting 20 50 20 5 5 cultural norm Post-Harvest(e.g Storage,, w) 5 80 5 5 5 cultural norm Transportation 20 10 70 Youths are young and energetic and can operate the vehicles Value Addition 5 70 20 5 Light task Sales and Marketing 30 50 10 5 5 women have access to the market, Men control the finances Livestock (Poultry-improved breeds) Activity Men Women Youth PWD Elderly Remarks Structure establishment 80 20 capital intensive/ cultural norms/ men built structures Breeding 20 20 20 20 20 equal chance for breeding activity Feeding 10 40 30 10 10 availability of labour from youth &amp; women Disease control 40 30 20 5 5 labour intensive/ skilled labour Sales and Marketing 30 40 10 10 10 mostly women are assigned sales of poultry due to their bargaining skills Value addition 10 50 30 5 5 culturally assigned</t>
-  </si>
-  <si>
     <t>inadequate of skills/capacity enhancement (e.g. disease control) land tenure systems (men control land, women can access with restrictions) limited access to finances (credit, )</t>
   </si>
   <si>
-    <t>Feeding, value addition, sales &amp; marketing (they do not control income, men do) -the remarks column answers the ‘why’ part</t>
-  </si>
-  <si>
     <t>· Longer periods of drought and short periods of rain have occassioned adoption of fast maturing crops/livestock value chains · Increased temperatures have influenced adoption of enterprises that tolerate heat stress · Increased floods have farmers adoption of perennial crops/fast /early maturing crops/cover crops/fish cages · Increased humidity has caused use of disease and pest resistant varities/breeds · Frequent incidences of strong winds have occassioned use of short and stout varieties and use of housed/indoor enterprises/planting of trees to act as wind breaks · Increased soil erosion –use of soil and water conservation structures/measures</t>
   </si>
   <si>
     <t>· Fish cages/earth ponds for men and youth · Black soldier fly for the youth · Groundnut varieties for women · Dairy goats for men · Cross dairy cows for men · Soya SB19 for women · Gunea fowls · Solar powered irrigation –farm ponds/water pans for horticultural production · Improved sweet potato varieties kabode,SPK004,Kenspot, Mugande, Vita</t>
   </si>
   <si>
-    <t>· Inadequate digital skills · Negative attitude They seek assistance from the ICT skilled people</t>
-  </si>
-  <si>
-    <t>a. land, · Land is accessed by all gender but control is by men b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services More men access credit because they have collateral , followed by women ,youth and elderly in that order. c. Access to training and knowledge/extension. More women than men and youth access agricultural training services. d. Access to information as market, weather More youth access market information than men and women. e. Access to technology eg ICT, digital gadgets, internet, digital literacy More youth access technology than men and women.</t>
-  </si>
-  <si>
     <t>High demand Most crops have high demand for example groundnuts,cassava,Orange Fleshed sweet potatoes,finger millet,sorghum.</t>
   </si>
   <si>
-    <t>Poultry and all the enterprises mentioned are highly competitive.There are opportunities for women in processing and making different recipes/products.</t>
-  </si>
-  <si>
-    <t>These have created small/medium scale cottage industries. They have group marketing through aggregation centers</t>
-  </si>
-  <si>
     <t>Male dominated enterprises generate more income but are not sustainable since the incomes are not usually ploughed back. Female dominated ones are more cohesive.</t>
   </si>
   <si>
@@ -208,9 +172,6 @@
     <t>· Formation /enhancing of existing marketing groups · Capacity building of existing cooperatives, aggregation centers · Improved varieties/breeds</t>
   </si>
   <si>
-    <t>Survey reports, Directorate validated reports ,project reports,stakeholder reports.</t>
-  </si>
-  <si>
     <t>· There are currently no policies specific to women led VCs.</t>
   </si>
   <si>
@@ -224,6 +185,9 @@
   </si>
   <si>
     <t>Enabling policies; · CIDPs-County Intergrated development Plans Hindering policies;</t>
+  </si>
+  <si>
+    <t>· Training on enterprise development · Support to acquire appropriate technology/machines · Affordable credit · Friendly technologies for production and processing · Enabling policies   Activity</t>
   </si>
 </sst>
 </file>
@@ -581,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,414 +561,291 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
